--- a/Test/Lawnmower/T2/Sensors_data_1000005.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000005.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6975510025261284</v>
+        <v>0.9920745710386663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.012361614929654</v>
+        <v>0.0004155369953554001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002822608477331567</v>
+        <v>0.2772633003484606</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,93 +500,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9818798482455366</v>
+        <v>0.8624624573382812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000874770728856993</v>
+        <v>0.008494356056482414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01470578992955823</v>
+        <v>0.004975248847361113</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8567558440869792</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.004739327100834675</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0656160510703831</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8569191106432144</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.004418927656366934</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4563537167329027</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9983429141411204</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0001208291191155611</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.007188565341089137</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
